--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H2">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I2">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J2">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294938315912875</v>
+        <v>0.4440536666666666</v>
       </c>
       <c r="N2">
-        <v>0.294938315912875</v>
+        <v>1.332161</v>
       </c>
       <c r="O2">
-        <v>0.05667895452295223</v>
+        <v>0.06598745121877762</v>
       </c>
       <c r="P2">
-        <v>0.05667895452295223</v>
+        <v>0.06598745121877764</v>
       </c>
       <c r="Q2">
-        <v>15.37630422999373</v>
+        <v>24.60818006867911</v>
       </c>
       <c r="R2">
-        <v>15.37630422999373</v>
+        <v>221.473620618112</v>
       </c>
       <c r="S2">
-        <v>0.004421227724116377</v>
+        <v>0.005370457295383684</v>
       </c>
       <c r="T2">
-        <v>0.004421227724116377</v>
+        <v>0.005370457295383686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H3">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I3">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J3">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.60384994540423</v>
+        <v>3.674351333333334</v>
       </c>
       <c r="N3">
-        <v>3.60384994540423</v>
+        <v>11.023054</v>
       </c>
       <c r="O3">
-        <v>0.692559888432568</v>
+        <v>0.5460175144798202</v>
       </c>
       <c r="P3">
-        <v>0.692559888432568</v>
+        <v>0.5460175144798202</v>
       </c>
       <c r="Q3">
-        <v>187.8829916969861</v>
+        <v>203.6220079545743</v>
       </c>
       <c r="R3">
-        <v>187.8829916969861</v>
+        <v>1832.598071591168</v>
       </c>
       <c r="S3">
-        <v>0.05402296152285355</v>
+        <v>0.04443820286865349</v>
       </c>
       <c r="T3">
-        <v>0.05402296152285355</v>
+        <v>0.0444382028686535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.1339663258127</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H4">
-        <v>52.1339663258127</v>
+        <v>166.251392</v>
       </c>
       <c r="I4">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J4">
-        <v>0.07800475081674264</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.30487716256504</v>
+        <v>0.008309666666666667</v>
       </c>
       <c r="N4">
-        <v>1.30487716256504</v>
+        <v>0.024929</v>
       </c>
       <c r="O4">
-        <v>0.2507611570444798</v>
+        <v>0.001234836608662848</v>
       </c>
       <c r="P4">
-        <v>0.2507611570444798</v>
+        <v>0.001234836608662848</v>
       </c>
       <c r="Q4">
-        <v>68.02842205248781</v>
+        <v>0.4604978834631112</v>
       </c>
       <c r="R4">
-        <v>68.02842205248781</v>
+        <v>4.144480951168</v>
       </c>
       <c r="S4">
-        <v>0.01956056156977271</v>
+        <v>0.0001004984607090433</v>
       </c>
       <c r="T4">
-        <v>0.01956056156977271</v>
+        <v>0.0001004984607090434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>596.699481635529</v>
+        <v>55.41713066666667</v>
       </c>
       <c r="H5">
-        <v>596.699481635529</v>
+        <v>166.251392</v>
       </c>
       <c r="I5">
-        <v>0.8928036299132158</v>
+        <v>0.08138603925734667</v>
       </c>
       <c r="J5">
-        <v>0.8928036299132158</v>
+        <v>0.08138603925734668</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.294938315912875</v>
+        <v>2.602650666666667</v>
       </c>
       <c r="N5">
-        <v>0.294938315912875</v>
+        <v>7.807952</v>
       </c>
       <c r="O5">
-        <v>0.05667895452295223</v>
+        <v>0.3867601976927393</v>
       </c>
       <c r="P5">
-        <v>0.05667895452295223</v>
+        <v>0.3867601976927393</v>
       </c>
       <c r="Q5">
-        <v>175.9895402196684</v>
+        <v>144.2314320743538</v>
       </c>
       <c r="R5">
-        <v>175.9895402196684</v>
+        <v>1298.082888669184</v>
       </c>
       <c r="S5">
-        <v>0.05060317633777783</v>
+        <v>0.03147688063260044</v>
       </c>
       <c r="T5">
-        <v>0.05060317633777783</v>
+        <v>0.03147688063260044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>596.699481635529</v>
+        <v>597.374756</v>
       </c>
       <c r="H6">
-        <v>596.699481635529</v>
+        <v>1792.124268</v>
       </c>
       <c r="I6">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J6">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.60384994540423</v>
+        <v>0.4440536666666666</v>
       </c>
       <c r="N6">
-        <v>3.60384994540423</v>
+        <v>1.332161</v>
       </c>
       <c r="O6">
-        <v>0.692559888432568</v>
+        <v>0.06598745121877762</v>
       </c>
       <c r="P6">
-        <v>0.692559888432568</v>
+        <v>0.06598745121877764</v>
       </c>
       <c r="Q6">
-        <v>2150.415394314934</v>
+        <v>265.2664507759054</v>
       </c>
       <c r="R6">
-        <v>2150.415394314934</v>
+        <v>2387.398056983148</v>
       </c>
       <c r="S6">
-        <v>0.6183199823248885</v>
+        <v>0.05789140610212</v>
       </c>
       <c r="T6">
-        <v>0.6183199823248885</v>
+        <v>0.05789140610212001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>596.699481635529</v>
+        <v>597.374756</v>
       </c>
       <c r="H7">
-        <v>596.699481635529</v>
+        <v>1792.124268</v>
       </c>
       <c r="I7">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J7">
-        <v>0.8928036299132158</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30487716256504</v>
+        <v>3.674351333333334</v>
       </c>
       <c r="N7">
-        <v>1.30487716256504</v>
+        <v>11.023054</v>
       </c>
       <c r="O7">
-        <v>0.2507611570444798</v>
+        <v>0.5460175144798202</v>
       </c>
       <c r="P7">
-        <v>0.2507611570444798</v>
+        <v>0.5460175144798202</v>
       </c>
       <c r="Q7">
-        <v>778.6195265005992</v>
+        <v>2194.964731208275</v>
       </c>
       <c r="R7">
-        <v>778.6195265005992</v>
+        <v>19754.68258087447</v>
       </c>
       <c r="S7">
-        <v>0.2238804712505495</v>
+        <v>0.4790262555348778</v>
       </c>
       <c r="T7">
-        <v>0.2238804712505495</v>
+        <v>0.4790262555348779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.5100283006562</v>
+        <v>597.374756</v>
       </c>
       <c r="H8">
-        <v>19.5100283006562</v>
+        <v>1792.124268</v>
       </c>
       <c r="I8">
-        <v>0.0291916192700414</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J8">
-        <v>0.0291916192700414</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.294938315912875</v>
+        <v>0.008309666666666667</v>
       </c>
       <c r="N8">
-        <v>0.294938315912875</v>
+        <v>0.024929</v>
       </c>
       <c r="O8">
-        <v>0.05667895452295223</v>
+        <v>0.001234836608662848</v>
       </c>
       <c r="P8">
-        <v>0.05667895452295223</v>
+        <v>0.001234836608662848</v>
       </c>
       <c r="Q8">
-        <v>5.754254890408069</v>
+        <v>4.963985097441333</v>
       </c>
       <c r="R8">
-        <v>5.754254890408069</v>
+        <v>44.675865876972</v>
       </c>
       <c r="S8">
-        <v>0.001654550461058013</v>
+        <v>0.001083333668167549</v>
       </c>
       <c r="T8">
-        <v>0.001654550461058013</v>
+        <v>0.001083333668167549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.5100283006562</v>
+        <v>597.374756</v>
       </c>
       <c r="H9">
-        <v>19.5100283006562</v>
+        <v>1792.124268</v>
       </c>
       <c r="I9">
-        <v>0.0291916192700414</v>
+        <v>0.8773093221949784</v>
       </c>
       <c r="J9">
-        <v>0.0291916192700414</v>
+        <v>0.8773093221949785</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.60384994540423</v>
+        <v>2.602650666666667</v>
       </c>
       <c r="N9">
-        <v>3.60384994540423</v>
+        <v>7.807952</v>
       </c>
       <c r="O9">
-        <v>0.692559888432568</v>
+        <v>0.3867601976927393</v>
       </c>
       <c r="P9">
-        <v>0.692559888432568</v>
+        <v>0.3867601976927393</v>
       </c>
       <c r="Q9">
-        <v>70.31121442615482</v>
+        <v>1554.757806953238</v>
       </c>
       <c r="R9">
-        <v>70.31121442615482</v>
+        <v>13992.82026257914</v>
       </c>
       <c r="S9">
-        <v>0.02021694458482588</v>
+        <v>0.339308326889813</v>
       </c>
       <c r="T9">
-        <v>0.02021694458482588</v>
+        <v>0.339308326889813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1960536666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.5881609999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="J10">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4440536666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.332161</v>
+      </c>
+      <c r="O10">
+        <v>0.06598745121877762</v>
+      </c>
+      <c r="P10">
+        <v>0.06598745121877764</v>
+      </c>
+      <c r="Q10">
+        <v>0.08705834954677777</v>
+      </c>
+      <c r="R10">
+        <v>0.7835251459209999</v>
+      </c>
+      <c r="S10">
+        <v>1.899950126919937E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.899950126919938E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1960536666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.5881609999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="J11">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.674351333333334</v>
+      </c>
+      <c r="N11">
+        <v>11.023054</v>
+      </c>
+      <c r="O11">
+        <v>0.5460175144798202</v>
+      </c>
+      <c r="P11">
+        <v>0.5460175144798202</v>
+      </c>
+      <c r="Q11">
+        <v>0.7203700515215555</v>
+      </c>
+      <c r="R11">
+        <v>6.483330463693999</v>
+      </c>
+      <c r="S11">
+        <v>0.0001572126255486035</v>
+      </c>
+      <c r="T11">
+        <v>0.0001572126255486036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1960536666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.5881609999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="J12">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.008309666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.024929</v>
+      </c>
+      <c r="O12">
+        <v>0.001234836608662848</v>
+      </c>
+      <c r="P12">
+        <v>0.001234836608662848</v>
+      </c>
+      <c r="Q12">
+        <v>0.001629140618777778</v>
+      </c>
+      <c r="R12">
+        <v>0.014662265569</v>
+      </c>
+      <c r="S12">
+        <v>3.555415352497717E-07</v>
+      </c>
+      <c r="T12">
+        <v>3.555415352497718E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1960536666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.5881609999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="J13">
+        <v>0.0002879259755950811</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.602650666666667</v>
+      </c>
+      <c r="N13">
+        <v>7.807952</v>
+      </c>
+      <c r="O13">
+        <v>0.3867601976927393</v>
+      </c>
+      <c r="P13">
+        <v>0.3867601976927393</v>
+      </c>
+      <c r="Q13">
+        <v>0.5102592062524445</v>
+      </c>
+      <c r="R13">
+        <v>4.592332856272</v>
+      </c>
+      <c r="S13">
+        <v>0.0001113583072420284</v>
+      </c>
+      <c r="T13">
+        <v>0.0001113583072420284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H14">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J14">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4440536666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.332161</v>
+      </c>
+      <c r="O14">
+        <v>0.06598745121877762</v>
+      </c>
+      <c r="P14">
+        <v>0.06598745121877764</v>
+      </c>
+      <c r="Q14">
+        <v>12.40196301490222</v>
+      </c>
+      <c r="R14">
+        <v>111.61766713412</v>
+      </c>
+      <c r="S14">
+        <v>0.002706588320004737</v>
+      </c>
+      <c r="T14">
+        <v>0.002706588320004738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H15">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J15">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.674351333333334</v>
+      </c>
+      <c r="N15">
+        <v>11.023054</v>
+      </c>
+      <c r="O15">
+        <v>0.5460175144798202</v>
+      </c>
+      <c r="P15">
+        <v>0.5460175144798202</v>
+      </c>
+      <c r="Q15">
+        <v>102.6208604059645</v>
+      </c>
+      <c r="R15">
+        <v>923.5877436536799</v>
+      </c>
+      <c r="S15">
+        <v>0.02239584345074019</v>
+      </c>
+      <c r="T15">
+        <v>0.02239584345074019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>19.5100283006562</v>
-      </c>
-      <c r="H10">
-        <v>19.5100283006562</v>
-      </c>
-      <c r="I10">
-        <v>0.0291916192700414</v>
-      </c>
-      <c r="J10">
-        <v>0.0291916192700414</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.30487716256504</v>
-      </c>
-      <c r="N10">
-        <v>1.30487716256504</v>
-      </c>
-      <c r="O10">
-        <v>0.2507611570444798</v>
-      </c>
-      <c r="P10">
-        <v>0.2507611570444798</v>
-      </c>
-      <c r="Q10">
-        <v>25.45819037052389</v>
-      </c>
-      <c r="R10">
-        <v>25.45819037052389</v>
-      </c>
-      <c r="S10">
-        <v>0.007320124224157515</v>
-      </c>
-      <c r="T10">
-        <v>0.007320124224157515</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H16">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J16">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.008309666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.024929</v>
+      </c>
+      <c r="O16">
+        <v>0.001234836608662848</v>
+      </c>
+      <c r="P16">
+        <v>0.001234836608662848</v>
+      </c>
+      <c r="Q16">
+        <v>0.2320804587422222</v>
+      </c>
+      <c r="R16">
+        <v>2.08872412868</v>
+      </c>
+      <c r="S16">
+        <v>5.064893825100577E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.064893825100579E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.92897333333333</v>
+      </c>
+      <c r="H17">
+        <v>83.78691999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="J17">
+        <v>0.04101671257207978</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.602650666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.807952</v>
+      </c>
+      <c r="O17">
+        <v>0.3867601976927393</v>
+      </c>
+      <c r="P17">
+        <v>0.3867601976927393</v>
+      </c>
+      <c r="Q17">
+        <v>72.68936106531555</v>
+      </c>
+      <c r="R17">
+        <v>654.20424958784</v>
+      </c>
+      <c r="S17">
+        <v>0.01586363186308384</v>
+      </c>
+      <c r="T17">
+        <v>0.01586363186308384</v>
       </c>
     </row>
   </sheetData>
